--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C463C-989E-CB4B-A970-8D26F2DD1240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5315A06-9499-924D-8A51-1DDC9D81618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="-20380" windowWidth="29400" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2840" yWindow="-18240" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol" sheetId="1" r:id="rId1"/>
     <sheet name="topic" sheetId="2" r:id="rId2"/>
     <sheet name="decay" sheetId="3" r:id="rId3"/>
-    <sheet name="Country" sheetId="4" r:id="rId4"/>
+    <sheet name="country" sheetId="4" r:id="rId4"/>
+    <sheet name="topic list" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>kol</t>
   </si>
@@ -127,17 +128,111 @@
   </si>
   <si>
     <t>country_weight</t>
+  </si>
+  <si>
+    <t>parent topics</t>
+  </si>
+  <si>
+    <t>child topics</t>
+  </si>
+  <si>
+    <t>Fiscal policy</t>
+  </si>
+  <si>
+    <t>Market conditions</t>
+  </si>
+  <si>
+    <t>asset bubble</t>
+  </si>
+  <si>
+    <t>stimulus plan</t>
+  </si>
+  <si>
+    <t>policy reform</t>
+  </si>
+  <si>
+    <t>liquidity crisis</t>
+  </si>
+  <si>
+    <t>Monetary policy</t>
+  </si>
+  <si>
+    <t>raise interest rate</t>
+  </si>
+  <si>
+    <t>cut interest rate</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>Market outlook</t>
+  </si>
+  <si>
+    <t>optimistic growth</t>
+  </si>
+  <si>
+    <t>Inflation</t>
+  </si>
+  <si>
+    <t>Job market</t>
+  </si>
+  <si>
+    <t>rising inflation</t>
+  </si>
+  <si>
+    <t>External shocks</t>
+  </si>
+  <si>
+    <t>wars</t>
+  </si>
+  <si>
+    <t>pandemic</t>
+  </si>
+  <si>
+    <t>Financial health</t>
+  </si>
+  <si>
+    <t>financial stability</t>
+  </si>
+  <si>
+    <t>weak labor market</t>
+  </si>
+  <si>
+    <t>financial stress</t>
+  </si>
+  <si>
+    <t>unemployment rate</t>
+  </si>
+  <si>
+    <t>price stablility</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>crypto bitcoin</t>
+  </si>
+  <si>
+    <t>digitalization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,14 +288,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1538,7 +1634,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2681,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B15BC-3EC7-544F-9C3B-FD0CBDD04FF0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2820,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2740,7 +2836,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2757,6 +2853,173 @@
       </c>
       <c r="B9">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5315A06-9499-924D-8A51-1DDC9D81618B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BBC43-D82A-B84D-942F-10AE0E622185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="-18240" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
     <sheet name="country" sheetId="4" r:id="rId4"/>
     <sheet name="topic list" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miPFkL8JiK43uJHAio2oM2abMFfJQ=="/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
   <si>
     <t>kol</t>
   </si>
@@ -145,42 +156,21 @@
     <t>asset bubble</t>
   </si>
   <si>
-    <t>stimulus plan</t>
-  </si>
-  <si>
-    <t>policy reform</t>
-  </si>
-  <si>
     <t>liquidity crisis</t>
   </si>
   <si>
     <t>Monetary policy</t>
   </si>
   <si>
-    <t>raise interest rate</t>
-  </si>
-  <si>
-    <t>cut interest rate</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
     <t>Market outlook</t>
   </si>
   <si>
-    <t>optimistic growth</t>
-  </si>
-  <si>
-    <t>Inflation</t>
-  </si>
-  <si>
     <t>Job market</t>
   </si>
   <si>
-    <t>rising inflation</t>
-  </si>
-  <si>
     <t>External shocks</t>
   </si>
   <si>
@@ -196,36 +186,139 @@
     <t>financial stability</t>
   </si>
   <si>
-    <t>weak labor market</t>
-  </si>
-  <si>
-    <t>financial stress</t>
-  </si>
-  <si>
-    <t>unemployment rate</t>
-  </si>
-  <si>
-    <t>price stablility</t>
-  </si>
-  <si>
     <t>Innovation</t>
   </si>
   <si>
-    <t>crypto bitcoin</t>
-  </si>
-  <si>
-    <t>digitalization</t>
+    <t>inflation is rising</t>
+  </si>
+  <si>
+    <t>inflation is falling</t>
+  </si>
+  <si>
+    <t>we will raise interest rate</t>
+  </si>
+  <si>
+    <t>we will not raise interest rate</t>
+  </si>
+  <si>
+    <t>we don't have recession</t>
+  </si>
+  <si>
+    <t>we have recession</t>
+  </si>
+  <si>
+    <t>unemployment rate is high</t>
+  </si>
+  <si>
+    <t>unemployment rate is low</t>
+  </si>
+  <si>
+    <t>pandemic is rising</t>
+  </si>
+  <si>
+    <t>pandemic is falling</t>
+  </si>
+  <si>
+    <t>financial stability increases</t>
+  </si>
+  <si>
+    <t>financial stability decreases</t>
+  </si>
+  <si>
+    <t>crypto currency is rising</t>
+  </si>
+  <si>
+    <t>crypto currency is falling</t>
+  </si>
+  <si>
+    <t>polarity</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>Inflation outlook</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>crypto currency</t>
+  </si>
+  <si>
+    <t>child topics questions</t>
+  </si>
+  <si>
+    <t>we have a war</t>
+  </si>
+  <si>
+    <t>we don't have a war</t>
+  </si>
+  <si>
+    <t>we will cut interest rate</t>
+  </si>
+  <si>
+    <t>we will not cut interest rate</t>
+  </si>
+  <si>
+    <t>we will stimulate the economy</t>
+  </si>
+  <si>
+    <t>we will not stimulate the economy</t>
+  </si>
+  <si>
+    <t>inflation is not rising</t>
+  </si>
+  <si>
+    <t>inflation is not falling</t>
+  </si>
+  <si>
+    <t>asset bubble is growing</t>
+  </si>
+  <si>
+    <t>asset bubble is not growing</t>
+  </si>
+  <si>
+    <t>asset bubble is shrinking</t>
+  </si>
+  <si>
+    <t>asset bubble is not shrinking</t>
+  </si>
+  <si>
+    <t>liquidity crisis is increasing</t>
+  </si>
+  <si>
+    <t>liquidity crisis is not increasing</t>
+  </si>
+  <si>
+    <t>liquidity crisis is decreasing</t>
+  </si>
+  <si>
+    <t>liquidity crisis is not decreasing</t>
+  </si>
+  <si>
+    <t>interest rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,14 +381,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2862,164 +2956,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <f>-D2</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D31" si="0">-D3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="C16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="C28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6BBC43-D82A-B84D-942F-10AE0E622185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309B15E-92C2-2D4A-B1BF-A58BF15AB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>kol</t>
   </si>
@@ -174,9 +174,6 @@
     <t>External shocks</t>
   </si>
   <si>
-    <t>wars</t>
-  </si>
-  <si>
     <t>pandemic</t>
   </si>
   <si>
@@ -201,30 +198,6 @@
     <t>we will not raise interest rate</t>
   </si>
   <si>
-    <t>we don't have recession</t>
-  </si>
-  <si>
-    <t>we have recession</t>
-  </si>
-  <si>
-    <t>unemployment rate is high</t>
-  </si>
-  <si>
-    <t>unemployment rate is low</t>
-  </si>
-  <si>
-    <t>pandemic is rising</t>
-  </si>
-  <si>
-    <t>pandemic is falling</t>
-  </si>
-  <si>
-    <t>financial stability increases</t>
-  </si>
-  <si>
-    <t>financial stability decreases</t>
-  </si>
-  <si>
     <t>crypto currency is rising</t>
   </si>
   <si>
@@ -252,24 +225,12 @@
     <t>child topics questions</t>
   </si>
   <si>
-    <t>we have a war</t>
-  </si>
-  <si>
-    <t>we don't have a war</t>
-  </si>
-  <si>
     <t>we will cut interest rate</t>
   </si>
   <si>
     <t>we will not cut interest rate</t>
   </si>
   <si>
-    <t>we will stimulate the economy</t>
-  </si>
-  <si>
-    <t>we will not stimulate the economy</t>
-  </si>
-  <si>
     <t>inflation is not rising</t>
   </si>
   <si>
@@ -301,17 +262,105 @@
   </si>
   <si>
     <t>interest rate</t>
+  </si>
+  <si>
+    <t>unemployment is rising</t>
+  </si>
+  <si>
+    <t>unemployment is not rising</t>
+  </si>
+  <si>
+    <t>unemployment is not falling</t>
+  </si>
+  <si>
+    <t>unemployment is falling</t>
+  </si>
+  <si>
+    <t>financial stability is increasing</t>
+  </si>
+  <si>
+    <t>financial stability is not increasing</t>
+  </si>
+  <si>
+    <t>financial stability is not decreasing</t>
+  </si>
+  <si>
+    <t>financial stability is decreasing</t>
+  </si>
+  <si>
+    <t>we will stimulate the economy more</t>
+  </si>
+  <si>
+    <t>we will not stimulate the economy more</t>
+  </si>
+  <si>
+    <t>we will stimulate the economy less</t>
+  </si>
+  <si>
+    <t>we will not stimulate the economy less</t>
+  </si>
+  <si>
+    <t>crypto currency is not rising</t>
+  </si>
+  <si>
+    <t>crypto currency is not falling</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>we have more geopolitical conflicts</t>
+  </si>
+  <si>
+    <t>we don't have more geopolitical conflicts</t>
+  </si>
+  <si>
+    <t>we have less geopolitical conflicts</t>
+  </si>
+  <si>
+    <t>we don't have less geopolitical conflicts</t>
+  </si>
+  <si>
+    <t>pandemic is expanding</t>
+  </si>
+  <si>
+    <t>pandemic is not expanding</t>
+  </si>
+  <si>
+    <t>pandemic is not shrinking</t>
+  </si>
+  <si>
+    <t>pandemic is shrinking</t>
+  </si>
+  <si>
+    <t>we don't have recession anymore</t>
+  </si>
+  <si>
+    <t>we have recessions now</t>
+  </si>
+  <si>
+    <t>we don't have recessions now</t>
+  </si>
+  <si>
+    <t>we still have recession</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,14 +430,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2956,15 +3006,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,10 +3025,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,10 +3036,10 @@
         <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3000,10 +3050,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D3">
         <f>-D2</f>
@@ -3012,28 +3062,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D31" si="0">-D3</f>
+        <f t="shared" ref="D4:D45" si="0">-D3</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -3048,7 +3098,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -3063,7 +3113,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -3075,10 +3125,10 @@
         <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -3090,10 +3140,10 @@
         <v>36</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -3108,7 +3158,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -3123,7 +3173,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -3132,13 +3182,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -3147,13 +3197,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -3165,10 +3215,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -3180,10 +3230,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -3192,13 +3242,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -3207,133 +3257,133 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
+      <c r="C18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -3342,13 +3392,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -3357,13 +3407,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -3372,13 +3422,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -3387,13 +3437,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -3402,13 +3452,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -3417,15 +3467,225 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>62</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309B15E-92C2-2D4A-B1BF-A58BF15AB662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B598F-16B7-9A40-9749-924C01879417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>Financial health</t>
   </si>
   <si>
-    <t>financial stability</t>
-  </si>
-  <si>
     <t>Innovation</t>
   </si>
   <si>
@@ -264,18 +261,6 @@
     <t>interest rate</t>
   </si>
   <si>
-    <t>unemployment is rising</t>
-  </si>
-  <si>
-    <t>unemployment is not rising</t>
-  </si>
-  <si>
-    <t>unemployment is not falling</t>
-  </si>
-  <si>
-    <t>unemployment is falling</t>
-  </si>
-  <si>
     <t>financial stability is increasing</t>
   </si>
   <si>
@@ -288,18 +273,6 @@
     <t>financial stability is decreasing</t>
   </si>
   <si>
-    <t>we will stimulate the economy more</t>
-  </si>
-  <si>
-    <t>we will not stimulate the economy more</t>
-  </si>
-  <si>
-    <t>we will stimulate the economy less</t>
-  </si>
-  <si>
-    <t>we will not stimulate the economy less</t>
-  </si>
-  <si>
     <t>crypto currency is not rising</t>
   </si>
   <si>
@@ -343,17 +316,51 @@
   </si>
   <si>
     <t>we still have recession</t>
+  </si>
+  <si>
+    <t>financial instability</t>
+  </si>
+  <si>
+    <t>people are unemployed</t>
+  </si>
+  <si>
+    <t>people are not unemployed</t>
+  </si>
+  <si>
+    <t>people are employed</t>
+  </si>
+  <si>
+    <t>people are not employed</t>
+  </si>
+  <si>
+    <t>we don't stimulate the economy</t>
+  </si>
+  <si>
+    <t>we stimulate the economy</t>
+  </si>
+  <si>
+    <t>we will not stimulate the economy</t>
+  </si>
+  <si>
+    <t>we will stimulate the economy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,14 +437,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3009,7 +3017,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3025,10 +3033,10 @@
         <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3036,10 +3044,10 @@
         <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3050,10 +3058,10 @@
         <v>35</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="D3">
         <f>-D2</f>
@@ -3065,10 +3073,10 @@
         <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>54</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D45" si="0">-D3</f>
@@ -3080,10 +3088,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -3098,7 +3106,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -3113,7 +3121,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
@@ -3128,7 +3136,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -3143,7 +3151,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -3158,7 +3166,7 @@
         <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
@@ -3173,7 +3181,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
@@ -3188,7 +3196,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
@@ -3203,7 +3211,7 @@
         <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
@@ -3215,10 +3223,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
@@ -3230,10 +3238,10 @@
         <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
@@ -3245,10 +3253,10 @@
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
@@ -3260,10 +3268,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
@@ -3278,7 +3286,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -3293,7 +3301,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3308,7 +3316,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -3323,7 +3331,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -3332,13 +3340,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
@@ -3347,13 +3355,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
@@ -3362,13 +3370,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
@@ -3377,13 +3385,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
@@ -3395,10 +3403,10 @@
         <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -3410,10 +3418,10 @@
         <v>42</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>75</v>
+        <v>57</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -3425,10 +3433,10 @@
         <v>42</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -3440,10 +3448,10 @@
         <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -3458,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -3473,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -3488,7 +3496,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -3503,7 +3511,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -3515,10 +3523,10 @@
         <v>43</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -3530,10 +3538,10 @@
         <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -3545,10 +3553,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -3560,10 +3568,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -3574,11 +3582,11 @@
       <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>46</v>
+      <c r="B38" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -3589,11 +3597,11 @@
       <c r="A39" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>46</v>
+      <c r="B39" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -3604,11 +3612,11 @@
       <c r="A40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>46</v>
+      <c r="B40" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -3619,11 +3627,11 @@
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>46</v>
+      <c r="B41" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -3632,13 +3640,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
@@ -3647,13 +3655,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -3662,13 +3670,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
@@ -3677,13 +3685,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B598F-16B7-9A40-9749-924C01879417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89457AF2-E126-B640-9DF8-0AE12032711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>liquidity crisis is not decreasing</t>
   </si>
   <si>
-    <t>interest rate</t>
-  </si>
-  <si>
     <t>financial stability is increasing</t>
   </si>
   <si>
@@ -343,17 +340,27 @@
   </si>
   <si>
     <t>we will stimulate the economy</t>
+  </si>
+  <si>
+    <t>raise interest rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,14 +444,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2929,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B15BC-3EC7-544F-9C3B-FD0CBDD04FF0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2972,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3016,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3047,7 +3055,7 @@
         <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3061,7 +3069,7 @@
         <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <f>-D2</f>
@@ -3076,7 +3084,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D45" si="0">-D3</f>
@@ -3091,7 +3099,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -3222,8 +3230,8 @@
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>72</v>
+      <c r="B14" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>49</v>
@@ -3237,8 +3245,8 @@
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>72</v>
+      <c r="B15" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>50</v>
@@ -3252,8 +3260,8 @@
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
+      <c r="B16" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>61</v>
@@ -3267,8 +3275,8 @@
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
+      <c r="B17" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>60</v>
@@ -3286,7 +3294,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
@@ -3301,7 +3309,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
@@ -3316,7 +3324,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
@@ -3331,7 +3339,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
@@ -3406,7 +3414,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -3421,7 +3429,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
@@ -3436,7 +3444,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
@@ -3451,7 +3459,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
@@ -3466,7 +3474,7 @@
         <v>44</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
@@ -3481,7 +3489,7 @@
         <v>44</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
@@ -3496,7 +3504,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
@@ -3511,7 +3519,7 @@
         <v>44</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
@@ -3523,10 +3531,10 @@
         <v>43</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
@@ -3538,10 +3546,10 @@
         <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
@@ -3553,10 +3561,10 @@
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
@@ -3568,10 +3576,10 @@
         <v>43</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
@@ -3583,10 +3591,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
@@ -3598,10 +3606,10 @@
         <v>45</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
@@ -3613,10 +3621,10 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
@@ -3628,10 +3636,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
@@ -3661,7 +3669,7 @@
         <v>58</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
@@ -3676,7 +3684,7 @@
         <v>58</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89457AF2-E126-B640-9DF8-0AE12032711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9EDE52-08D9-894C-9102-B6974912EDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kol" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>kol</t>
   </si>
@@ -204,9 +204,6 @@
     <t>polarity</t>
   </si>
   <si>
-    <t>stimulus</t>
-  </si>
-  <si>
     <t>inflation</t>
   </si>
   <si>
@@ -246,18 +243,6 @@
     <t>asset bubble is not shrinking</t>
   </si>
   <si>
-    <t>liquidity crisis is increasing</t>
-  </si>
-  <si>
-    <t>liquidity crisis is not increasing</t>
-  </si>
-  <si>
-    <t>liquidity crisis is decreasing</t>
-  </si>
-  <si>
-    <t>liquidity crisis is not decreasing</t>
-  </si>
-  <si>
     <t>financial stability is increasing</t>
   </si>
   <si>
@@ -330,30 +315,118 @@
     <t>people are not employed</t>
   </si>
   <si>
-    <t>we don't stimulate the economy</t>
-  </si>
-  <si>
-    <t>we stimulate the economy</t>
-  </si>
-  <si>
-    <t>we will not stimulate the economy</t>
-  </si>
-  <si>
-    <t>we will stimulate the economy</t>
-  </si>
-  <si>
     <t>raise interest rate</t>
+  </si>
+  <si>
+    <t>quantitative easing</t>
+  </si>
+  <si>
+    <t>we expand quantitative easing</t>
+  </si>
+  <si>
+    <t>we don't expand quantitative easing</t>
+  </si>
+  <si>
+    <t>we stop quantitative easing</t>
+  </si>
+  <si>
+    <t>we don't stop quantitative easing</t>
+  </si>
+  <si>
+    <t>fiscal stimulus</t>
+  </si>
+  <si>
+    <t>we don't have fiscal stimulus</t>
+  </si>
+  <si>
+    <t>we have fiscal stimulus</t>
+  </si>
+  <si>
+    <t>we don't stop fiscal stimulus</t>
+  </si>
+  <si>
+    <t>we stop fiscal stimulus</t>
+  </si>
+  <si>
+    <t>we have liquidity crisis</t>
+  </si>
+  <si>
+    <t>we don't have liquidity crisis</t>
+  </si>
+  <si>
+    <t>we will not have liquidity crisis</t>
+  </si>
+  <si>
+    <t>we will have liquidity crisis</t>
+  </si>
+  <si>
+    <t>globalization</t>
+  </si>
+  <si>
+    <t>we support globalization</t>
+  </si>
+  <si>
+    <t>we don't support globalization</t>
+  </si>
+  <si>
+    <t>we don't stop globalization</t>
+  </si>
+  <si>
+    <t>we stop globalization</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>commodity price is rising</t>
+  </si>
+  <si>
+    <t>commodity price is not rising</t>
+  </si>
+  <si>
+    <t>commodity price is not falling</t>
+  </si>
+  <si>
+    <t>commodity price is falling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,14 +517,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2937,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965B15BC-3EC7-544F-9C3B-FD0CBDD04FF0}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,10 +3099,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3041,7 +3118,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>53</v>
@@ -3051,11 +3128,11 @@
       <c r="A2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>97</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3065,14 +3142,13 @@
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>96</v>
+      <c r="B3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="D3">
-        <f>-D2</f>
         <v>-1</v>
       </c>
     </row>
@@ -3080,14 +3156,13 @@
       <c r="A4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>99</v>
+      <c r="B4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D45" si="0">-D3</f>
         <v>1</v>
       </c>
     </row>
@@ -3095,14 +3170,13 @@
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>98</v>
+      <c r="B5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3114,10 +3188,9 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3129,10 +3202,9 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3144,10 +3216,9 @@
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3159,10 +3230,9 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3173,11 +3243,10 @@
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
+      <c r="C10" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3188,11 +3257,10 @@
       <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>69</v>
+      <c r="C11" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3203,11 +3271,10 @@
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>71</v>
+      <c r="C12" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3218,11 +3285,10 @@
       <c r="B13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>70</v>
+      <c r="C13" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3231,13 +3297,12 @@
         <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3246,13 +3311,12 @@
         <v>39</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3261,13 +3325,12 @@
         <v>39</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3276,13 +3339,12 @@
         <v>39</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3294,10 +3356,9 @@
         <v>40</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3309,10 +3370,9 @@
         <v>40</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3324,10 +3384,9 @@
         <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3339,70 +3398,65 @@
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3411,13 +3465,12 @@
         <v>42</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3426,13 +3479,12 @@
         <v>42</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3441,13 +3493,12 @@
         <v>42</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3456,13 +3507,12 @@
         <v>42</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3474,10 +3524,9 @@
         <v>44</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3489,10 +3538,9 @@
         <v>44</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3504,10 +3552,9 @@
         <v>44</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3519,10 +3566,9 @@
         <v>44</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3531,13 +3577,12 @@
         <v>43</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3546,13 +3591,12 @@
         <v>43</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3561,13 +3605,12 @@
         <v>43</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3576,13 +3619,12 @@
         <v>43</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3591,13 +3633,12 @@
         <v>45</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3606,13 +3647,12 @@
         <v>45</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3621,13 +3661,12 @@
         <v>45</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3636,13 +3675,12 @@
         <v>45</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3651,13 +3689,12 @@
         <v>46</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3666,13 +3703,12 @@
         <v>46</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
@@ -3681,13 +3717,12 @@
         <v>46</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3696,13 +3731,180 @@
         <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57">
         <v>-1</v>
       </c>
     </row>

--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9EDE52-08D9-894C-9102-B6974912EDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0BCDC-004C-5E45-847A-A0A76ADAA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="country" sheetId="4" r:id="rId4"/>
     <sheet name="topic list" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'topic list'!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>kol</t>
   </si>
@@ -147,9 +150,6 @@
     <t>child topics</t>
   </si>
   <si>
-    <t>Fiscal policy</t>
-  </si>
-  <si>
     <t>Market conditions</t>
   </si>
   <si>
@@ -159,274 +159,99 @@
     <t>liquidity crisis</t>
   </si>
   <si>
-    <t>Monetary policy</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>Market outlook</t>
   </si>
   <si>
-    <t>Job market</t>
-  </si>
-  <si>
     <t>External shocks</t>
   </si>
   <si>
     <t>pandemic</t>
   </si>
   <si>
-    <t>Financial health</t>
-  </si>
-  <si>
     <t>Innovation</t>
   </si>
   <si>
-    <t>inflation is rising</t>
-  </si>
-  <si>
-    <t>inflation is falling</t>
-  </si>
-  <si>
-    <t>we will raise interest rate</t>
-  </si>
-  <si>
-    <t>we will not raise interest rate</t>
-  </si>
-  <si>
-    <t>crypto currency is rising</t>
-  </si>
-  <si>
-    <t>crypto currency is falling</t>
-  </si>
-  <si>
     <t>polarity</t>
   </si>
   <si>
     <t>inflation</t>
   </si>
   <si>
-    <t>Inflation outlook</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
     <t>crypto currency</t>
   </si>
   <si>
     <t>child topics questions</t>
   </si>
   <si>
-    <t>we will cut interest rate</t>
-  </si>
-  <si>
-    <t>we will not cut interest rate</t>
-  </si>
-  <si>
-    <t>inflation is not rising</t>
-  </si>
-  <si>
-    <t>inflation is not falling</t>
-  </si>
-  <si>
-    <t>asset bubble is growing</t>
-  </si>
-  <si>
-    <t>asset bubble is not growing</t>
-  </si>
-  <si>
-    <t>asset bubble is shrinking</t>
-  </si>
-  <si>
-    <t>asset bubble is not shrinking</t>
-  </si>
-  <si>
-    <t>financial stability is increasing</t>
-  </si>
-  <si>
-    <t>financial stability is not increasing</t>
-  </si>
-  <si>
-    <t>financial stability is not decreasing</t>
-  </si>
-  <si>
-    <t>financial stability is decreasing</t>
-  </si>
-  <si>
-    <t>crypto currency is not rising</t>
-  </si>
-  <si>
-    <t>crypto currency is not falling</t>
-  </si>
-  <si>
     <t>conflict</t>
   </si>
   <si>
-    <t>we have more geopolitical conflicts</t>
-  </si>
-  <si>
-    <t>we don't have more geopolitical conflicts</t>
-  </si>
-  <si>
-    <t>we have less geopolitical conflicts</t>
-  </si>
-  <si>
-    <t>we don't have less geopolitical conflicts</t>
-  </si>
-  <si>
-    <t>pandemic is expanding</t>
-  </si>
-  <si>
-    <t>pandemic is not expanding</t>
-  </si>
-  <si>
-    <t>pandemic is not shrinking</t>
-  </si>
-  <si>
-    <t>pandemic is shrinking</t>
-  </si>
-  <si>
-    <t>we don't have recession anymore</t>
-  </si>
-  <si>
-    <t>we have recessions now</t>
-  </si>
-  <si>
-    <t>we don't have recessions now</t>
-  </si>
-  <si>
-    <t>we still have recession</t>
-  </si>
-  <si>
     <t>financial instability</t>
   </si>
   <si>
-    <t>people are unemployed</t>
-  </si>
-  <si>
-    <t>people are not unemployed</t>
-  </si>
-  <si>
-    <t>people are employed</t>
-  </si>
-  <si>
-    <t>people are not employed</t>
-  </si>
-  <si>
-    <t>raise interest rate</t>
-  </si>
-  <si>
     <t>quantitative easing</t>
   </si>
   <si>
-    <t>we expand quantitative easing</t>
-  </si>
-  <si>
-    <t>we don't expand quantitative easing</t>
-  </si>
-  <si>
-    <t>we stop quantitative easing</t>
-  </si>
-  <si>
-    <t>we don't stop quantitative easing</t>
-  </si>
-  <si>
-    <t>fiscal stimulus</t>
-  </si>
-  <si>
-    <t>we don't have fiscal stimulus</t>
-  </si>
-  <si>
-    <t>we have fiscal stimulus</t>
-  </si>
-  <si>
-    <t>we don't stop fiscal stimulus</t>
-  </si>
-  <si>
-    <t>we stop fiscal stimulus</t>
-  </si>
-  <si>
-    <t>we have liquidity crisis</t>
-  </si>
-  <si>
-    <t>we don't have liquidity crisis</t>
-  </si>
-  <si>
-    <t>we will not have liquidity crisis</t>
-  </si>
-  <si>
-    <t>we will have liquidity crisis</t>
-  </si>
-  <si>
     <t>globalization</t>
   </si>
   <si>
-    <t>we support globalization</t>
-  </si>
-  <si>
-    <t>we don't support globalization</t>
-  </si>
-  <si>
-    <t>we don't stop globalization</t>
-  </si>
-  <si>
-    <t>we stop globalization</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>commodity price is rising</t>
-  </si>
-  <si>
-    <t>commodity price is not rising</t>
-  </si>
-  <si>
-    <t>commodity price is not falling</t>
-  </si>
-  <si>
-    <t>commodity price is falling</t>
+    <t>Policy response</t>
+  </si>
+  <si>
+    <t>polarity description</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>housing price</t>
+  </si>
+  <si>
+    <t>expanding</t>
+  </si>
+  <si>
+    <t>shrinking</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>recession chance</t>
+  </si>
+  <si>
+    <t>financial stability</t>
+  </si>
+  <si>
+    <t>child topics actual</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>de-globalization</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,18 +342,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,7 +361,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3015,7 +2847,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3065,7 +2897,7 @@
         <v>27</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,816 +2931,656 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f t="shared" ref="C2:C23" si="0">B2</f>
+        <v>quantitative easing</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="9" t="str">
+        <f t="shared" ref="E2:E25" si="1">C2&amp;" is "&amp;D2</f>
+        <v>quantitative easing is more</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>quantitative easing</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>quantitative easing is less</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>interest rate</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>IF(F4=1,"rising",IF(F4=-1,"falling"))</f>
+        <v>rising</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>interest rate is rising</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>interest rate</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f t="shared" ref="D5:D19" si="2">IF(F5=1,"rising",IF(F5=-1,"falling"))</f>
+        <v>falling</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>interest rate is falling</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>recession chance</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>recession chance is rising</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>recession chance</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>recession chance is falling</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>inflation</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>inflation is rising</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>inflation</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>inflation is falling</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>housing price</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>housing price is rising</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>housing price</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>housing price is falling</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>asset bubble</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>asset bubble is rising</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="G12" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3">
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>asset bubble</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>asset bubble is falling</v>
+      </c>
+      <c r="F13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="G13" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4">
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>liquidity crisis</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>liquidity crisis is rising</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="G14" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5">
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>liquidity crisis</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>liquidity crisis is falling</v>
+      </c>
+      <c r="F15">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6">
+      <c r="G15" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>financial stability is rising</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>financial stability is falling</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G17" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>crypto currency</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rising</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>crypto currency is rising</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G18" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>crypto currency</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>falling</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>crypto currency is falling</v>
+      </c>
+      <c r="F19">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G19" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>pandemic</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>pandemic is expanding</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G20" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>pandemic</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>pandemic is shrinking</v>
+      </c>
+      <c r="F21">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22">
+      <c r="G21" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>conflict</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" ref="D22:D23" si="3">IF(F22=1,"rising",IF(F22=-1,"falling"))</f>
+        <v>rising</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>conflict is rising</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="G22" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>conflict</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>falling</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>conflict is falling</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>globalization is falling</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D23">
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>globalization is rising</v>
+      </c>
+      <c r="F25">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="G25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortCondition descending="1" ref="A1:A25"/>
+  </sortState>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="good">
+      <formula>NOT(ISERROR(SEARCH("good",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INPUT/reference_tables/weight.xlsx
+++ b/INPUT/reference_tables/weight.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakewen/Desktop/GitHub/KOL_model/INPUT/reference_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF0BCDC-004C-5E45-847A-A0A76ADAA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA9309-13E6-814F-BA7F-08FB9C7CB116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>kol</t>
   </si>
@@ -165,93 +165,86 @@
     <t>External shocks</t>
   </si>
   <si>
-    <t>pandemic</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
     <t>polarity</t>
   </si>
   <si>
     <t>inflation</t>
   </si>
   <si>
-    <t>crypto currency</t>
-  </si>
-  <si>
     <t>child topics questions</t>
   </si>
   <si>
-    <t>conflict</t>
-  </si>
-  <si>
     <t>financial instability</t>
   </si>
   <si>
+    <t>Policy response</t>
+  </si>
+  <si>
+    <t>polarity description</t>
+  </si>
+  <si>
+    <t>housing price</t>
+  </si>
+  <si>
+    <t>expanding</t>
+  </si>
+  <si>
+    <t>shrinking</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>financial stability</t>
+  </si>
+  <si>
+    <t>child topics actual</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>policy rate</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>recession chance</t>
+  </si>
+  <si>
     <t>quantitative easing</t>
-  </si>
-  <si>
-    <t>globalization</t>
-  </si>
-  <si>
-    <t>Policy response</t>
-  </si>
-  <si>
-    <t>polarity description</t>
-  </si>
-  <si>
-    <t>interest rate</t>
-  </si>
-  <si>
-    <t>housing price</t>
-  </si>
-  <si>
-    <t>expanding</t>
-  </si>
-  <si>
-    <t>shrinking</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>recession chance</t>
-  </si>
-  <si>
-    <t>financial stability</t>
-  </si>
-  <si>
-    <t>child topics actual</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>de-globalization</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>less</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,14 +335,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2847,7 +2842,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,7 +2860,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2873,7 +2868,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2905,7 +2900,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2913,7 +2908,7 @@
         <v>29</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2931,15 +2926,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2950,115 +2945,123 @@
         <v>34</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f t="shared" ref="C2:C23" si="0">B2</f>
-        <v>quantitative easing</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>64</v>
+        <f t="shared" ref="C2:C15" si="0">B2</f>
+        <v>policy rate</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IF(F2=1,"rising",IF(F2=-1,"falling"))</f>
+        <v>rising</v>
       </c>
       <c r="E2" s="9" t="str">
-        <f t="shared" ref="E2:E25" si="1">C2&amp;" is "&amp;D2</f>
-        <v>quantitative easing is more</v>
+        <f t="shared" ref="E2:E15" si="1">C2&amp;" is "&amp;D2</f>
+        <v>policy rate is rising</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>quantitative easing</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>65</v>
+        <v>policy rate</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f t="shared" ref="D3:D11" si="2">IF(F3=1,"rising",IF(F3=-1,"falling"))</f>
+        <v>falling</v>
       </c>
       <c r="E3" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>quantitative easing is less</v>
+        <v>policy rate is falling</v>
       </c>
       <c r="F3">
         <v>-1</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>50</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>interest rate</v>
+        <v>inflation</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>IF(F4=1,"rising",IF(F4=-1,"falling"))</f>
+        <f t="shared" si="2"/>
         <v>rising</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>interest rate is rising</v>
+        <v>inflation is rising</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>50</v>
+      <c r="A5" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>interest rate</v>
+        <v>inflation</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f t="shared" ref="D5:D19" si="2">IF(F5=1,"rising",IF(F5=-1,"falling"))</f>
+        <f t="shared" si="2"/>
         <v>falling</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>interest rate is falling</v>
+        <v>inflation is falling</v>
       </c>
       <c r="F5">
         <v>-1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3066,11 +3069,11 @@
         <v>38</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>recession chance</v>
+        <v>housing price</v>
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3078,13 +3081,13 @@
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>recession chance is rising</v>
+        <v>housing price is rising</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3092,11 +3095,11 @@
         <v>38</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>recession chance</v>
+        <v>housing price</v>
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3104,25 +3107,25 @@
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>recession chance is falling</v>
+        <v>housing price is falling</v>
       </c>
       <c r="F7">
         <v>-1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>inflation</v>
+        <v>asset bubble</v>
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3130,25 +3133,25 @@
       </c>
       <c r="E8" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>inflation is rising</v>
+        <v>asset bubble is rising</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>inflation</v>
+        <v>asset bubble</v>
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3156,25 +3159,25 @@
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>inflation is falling</v>
+        <v>asset bubble is falling</v>
       </c>
       <c r="F9">
         <v>-1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>housing price</v>
+        <v>liquidity crisis</v>
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3182,25 +3185,25 @@
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>housing price is rising</v>
+        <v>liquidity crisis is rising</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>housing price</v>
+        <v>liquidity crisis</v>
       </c>
       <c r="D11" s="10" t="str">
         <f t="shared" si="2"/>
@@ -3208,373 +3211,213 @@
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>housing price is falling</v>
+        <v>liquidity crisis is falling</v>
       </c>
       <c r="F11">
         <v>-1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>asset bubble</v>
-      </c>
-      <c r="D12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rising</v>
+      <c r="B12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>asset bubble is rising</v>
+        <v>financial stability is rising</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>asset bubble</v>
-      </c>
-      <c r="D13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>falling</v>
+      <c r="B13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>asset bubble is falling</v>
+        <v>financial stability is falling</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>liquidity crisis</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rising</v>
+        <v>covid</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>liquidity crisis is rising</v>
+        <v>covid is expanding</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>liquidity crisis</v>
-      </c>
-      <c r="D15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>falling</v>
+        <v>covid</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>liquidity crisis is falling</v>
+        <v>covid is shrinking</v>
       </c>
       <c r="F15">
         <v>-1</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="C16" s="10" t="str">
+        <f t="shared" ref="C16" si="3">B16</f>
+        <v>recession chance</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f t="shared" ref="D16:D17" si="4">IF(F16=1,"rising",IF(F16=-1,"falling"))</f>
+        <v>rising</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" ref="E16" si="5">C16&amp;" is "&amp;D16</f>
+        <v>recession chance is rising</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" ref="C17:C18" si="6">B17</f>
+        <v>recession chance</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>falling</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" ref="E17:E18" si="7">C17&amp;" is "&amp;D17</f>
+        <v>recession chance is falling</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>quantitative easing</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>financial stability is rising</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>financial stability is falling</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>crypto currency</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rising</v>
-      </c>
       <c r="E18" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>crypto currency is rising</v>
+        <f t="shared" si="7"/>
+        <v>quantitative easing is expanding</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="B19" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>crypto currency</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>falling</v>
+        <f t="shared" ref="C19" si="8">B19</f>
+        <v>quantitative easing</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>crypto currency is falling</v>
+        <f t="shared" ref="E19" si="9">C19&amp;" is "&amp;D19</f>
+        <v>quantitative easing is shrinking</v>
       </c>
       <c r="F19">
         <v>-1</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>pandemic</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>pandemic is expanding</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>pandemic</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>pandemic is shrinking</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>conflict</v>
-      </c>
-      <c r="D22" s="10" t="str">
-        <f t="shared" ref="D22:D23" si="3">IF(F22=1,"rising",IF(F22=-1,"falling"))</f>
-        <v>rising</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>conflict is rising</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>conflict</v>
-      </c>
-      <c r="D23" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>falling</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>conflict is falling</v>
-      </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>globalization is falling</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>globalization is rising</v>
-      </c>
-      <c r="F25">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{21D94C68-E4D2-A941-AFA6-546C2585A991}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
-    <sortCondition descending="1" ref="A1:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F15">
+    <sortCondition descending="1" ref="A1:A15"/>
   </sortState>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="good">
